--- a/01.15.2024/financial_anal_Rachel.xlsx
+++ b/01.15.2024/financial_anal_Rachel.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\ftfy repo\ftfy github repo\financialaudit\01.15.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EBADC-6C58-4D15-988E-189534B357FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A0643E-DC1A-4FC5-9E7C-867F1771B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EABEB508-9CDB-4E9C-9838-5B5F93A0A586}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Misc Expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Red Flags" sheetId="3" r:id="rId3"/>
+    <sheet name="In This Economy" sheetId="4" r:id="rId4"/>
+    <sheet name="Credit Score" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,12 +42,48 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={3ED7B761-563C-44B5-86A4-53F90EC91B4E}</author>
+    <author>tc={28214DA6-2D34-4384-884C-85D3819B41D5}</author>
+    <author>tc={7484672B-6249-4A3C-A9BD-73F379F7A901}</author>
+    <author>tc={EB5E4052-77F2-44BE-8052-FD01169E83BC}</author>
     <author>tc={287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}</author>
     <author>tc={F9671CB5-97BE-4F5A-B668-B2B87A615A24}</author>
-    <author>tc={28214DA6-2D34-4384-884C-85D3819B41D5}</author>
   </authors>
   <commentList>
-    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{3ED7B761-563C-44B5-86A4-53F90EC91B4E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Update for after tax be deleting expense-taxes</t>
+      </text>
+    </comment>
+    <comment ref="A26" authorId="1" shapeId="0" xr:uid="{28214DA6-2D34-4384-884C-85D3819B41D5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Largest expenses and fixed monthly expenses first</t>
+      </text>
+    </comment>
+    <comment ref="B34" authorId="2" shapeId="0" xr:uid="{7484672B-6249-4A3C-A9BD-73F379F7A901}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Different from outstanding balance
+</t>
+      </text>
+    </comment>
+    <comment ref="C55" authorId="3" shapeId="0" xr:uid="{EB5E4052-77F2-44BE-8052-FD01169E83BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Not how marginal tax rate system works</t>
+      </text>
+    </comment>
+    <comment ref="A63" authorId="4" shapeId="0" xr:uid="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +91,7 @@
     Order of liquidity</t>
       </text>
     </comment>
-    <comment ref="A37" authorId="1" shapeId="0" xr:uid="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+    <comment ref="A87" authorId="5" shapeId="0" xr:uid="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,20 +101,12 @@
     Outstanding balances only</t>
       </text>
     </comment>
-    <comment ref="A70" authorId="2" shapeId="0" xr:uid="{28214DA6-2D34-4384-884C-85D3819B41D5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Largest expenses and fixed monthly expenses first</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
   <si>
     <t>Assets</t>
   </si>
@@ -91,9 +123,6 @@
     <t>Expenses</t>
   </si>
   <si>
-    <t>Net Income</t>
-  </si>
-  <si>
     <t>Investments</t>
   </si>
   <si>
@@ -160,9 +189,6 @@
     <t>Very High</t>
   </si>
   <si>
-    <t>Overall Rating:</t>
-  </si>
-  <si>
     <t>Checking Account</t>
   </si>
   <si>
@@ -286,9 +312,6 @@
     <t>Other (Has to be liquid)</t>
   </si>
   <si>
-    <t>Wages/Salaries (After Tax)</t>
-  </si>
-  <si>
     <t>Other Income</t>
   </si>
   <si>
@@ -298,9 +321,6 @@
     <t>Other, Must Generate Cash Flow</t>
   </si>
   <si>
-    <t>Rental Property</t>
-  </si>
-  <si>
     <t>Other Lines of Credit, Outstanding Debt</t>
   </si>
   <si>
@@ -371,13 +391,178 @@
   </si>
   <si>
     <t>Ignore %returns bc of uncertainty of capital markets</t>
+  </si>
+  <si>
+    <t>Est. for Self Employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est. Taxes </t>
+  </si>
+  <si>
+    <t>Quotes:</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <t>Primary Home, Purchase Price</t>
+  </si>
+  <si>
+    <t>Fixed Assets, Must have 100% Ownership</t>
+  </si>
+  <si>
+    <t>Rental Property, Purchase Price</t>
+  </si>
+  <si>
+    <t>Ignore market price (zillow zestimate)</t>
+  </si>
+  <si>
+    <t>Car, Market Price</t>
+  </si>
+  <si>
+    <t>Assessed Value (account for depreciation)</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Spotify</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Venmo</t>
+  </si>
+  <si>
+    <t>Hustle</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>Total of Misc Expenses</t>
+  </si>
+  <si>
+    <t>Wages/Salaries (Pre Tax)</t>
+  </si>
+  <si>
+    <t>Unbiased opinion on accuracy (true definition of financial statement audit)</t>
+  </si>
+  <si>
+    <t>Overall Rating of Financial Status (Formula Driven):</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Dental</t>
+  </si>
+  <si>
+    <t>Net Income (1 Month of Activity)</t>
+  </si>
+  <si>
+    <t>Acorn, took out everything</t>
+  </si>
+  <si>
+    <t>Need balance for EOY taxes</t>
+  </si>
+  <si>
+    <t>For EOY taxes</t>
+  </si>
+  <si>
+    <t>Net Income (Annualized)</t>
+  </si>
+  <si>
+    <t>Trade for "services"</t>
+  </si>
+  <si>
+    <t>Uber/Taxis</t>
+  </si>
+  <si>
+    <t>Public Transportation</t>
+  </si>
+  <si>
+    <t>Approx. 22% of Income</t>
+  </si>
+  <si>
+    <t>Vision, abundance mindset,</t>
+  </si>
+  <si>
+    <t>Feelings</t>
+  </si>
+  <si>
+    <t>Manifest</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Abundance</t>
+  </si>
+  <si>
+    <t>End of the day, budgeting expenses is rarely the solution. The only true escape is to increase your income.</t>
+  </si>
+  <si>
+    <t>Rice and beans won't save you in our capitalist society</t>
+  </si>
+  <si>
+    <t>Notes for the community:</t>
+  </si>
+  <si>
+    <t>Credit Card #3</t>
+  </si>
+  <si>
+    <t>Credit Card #4</t>
+  </si>
+  <si>
+    <t>First, freeze your credit with the credit bureaus</t>
+  </si>
+  <si>
+    <t>Second, freeze your f***ing credit</t>
+  </si>
+  <si>
+    <t>I could care less about the rest, go to reddit to learn how to manage your debt. Just start with the debt snowball concept like everyone else</t>
+  </si>
+  <si>
+    <t>Credit Score</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>&gt;800</t>
+  </si>
+  <si>
+    <t>&lt;580</t>
+  </si>
+  <si>
+    <t>670&lt;x&lt;740</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,16 +601,65 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -433,17 +667,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -782,59 +1074,74 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A16" dT="2024-01-17T02:26:36.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
+  <threadedComment ref="B19" dT="2024-01-17T03:47:39.55" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{3ED7B761-563C-44B5-86A4-53F90EC91B4E}">
+    <text>Update for after tax be deleting expense-taxes</text>
+  </threadedComment>
+  <threadedComment ref="A26" dT="2024-01-17T03:15:50.57" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{28214DA6-2D34-4384-884C-85D3819B41D5}">
+    <text>Largest expenses and fixed monthly expenses first</text>
+  </threadedComment>
+  <threadedComment ref="B34" dT="2024-01-17T03:51:27.77" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{7484672B-6249-4A3C-A9BD-73F379F7A901}">
+    <text xml:space="preserve">Different from outstanding balance
+</text>
+  </threadedComment>
+  <threadedComment ref="C55" dT="2024-01-17T03:57:11.60" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{EB5E4052-77F2-44BE-8052-FD01169E83BC}">
+    <text>Not how marginal tax rate system works</text>
+  </threadedComment>
+  <threadedComment ref="A63" dT="2024-01-17T02:26:36.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
     <text>Order of liquidity</text>
   </threadedComment>
-  <threadedComment ref="A37" dT="2024-01-17T02:54:07.67" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+  <threadedComment ref="A87" dT="2024-01-17T02:54:07.67" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
     <text>Should probably order by interest rate</text>
   </threadedComment>
-  <threadedComment ref="A37" dT="2024-01-17T03:12:25.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{E1A5ED7D-F6B6-4033-AB6F-7B42138EB11B}" parentId="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+  <threadedComment ref="A87" dT="2024-01-17T03:12:25.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{E1A5ED7D-F6B6-4033-AB6F-7B42138EB11B}" parentId="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
     <text>Outstanding balances only</text>
-  </threadedComment>
-  <threadedComment ref="A70" dT="2024-01-17T03:15:50.57" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{28214DA6-2D34-4384-884C-85D3819B41D5}">
-    <text>Largest expenses and fixed monthly expenses first</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DAD69-0CBD-442A-B9B3-7BA41531C407}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>27</v>
@@ -842,23 +1149,40 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
+        <v>140</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+      <c r="B8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -866,439 +1190,930 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="10"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="10"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="10"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="10"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="10"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="10"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="10">
+        <f>'Misc Expenses'!A1</f>
+        <v>1371.5500000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="10">
+        <f>SUM(D20:D21)*0.22</f>
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="11"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="D66" s="11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="F68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="11"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="11">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="11"/>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="11"/>
+      <c r="F76" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>37</v>
+      </c>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>99</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D88" s="12"/>
+      <c r="F88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>52</v>
+      </c>
+      <c r="D89" s="12">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="12">
+        <f>2648-53</f>
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>135</v>
+      </c>
+      <c r="D91" s="12">
+        <f>4845-45</f>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>136</v>
+      </c>
+      <c r="D92" s="12"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>47</v>
+      </c>
+      <c r="D93" s="12"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="12"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" s="12"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="12"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="12"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>71</v>
+      </c>
+      <c r="D98" s="12"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D99" s="12"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>72</v>
+      </c>
+      <c r="D100" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="12"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="12"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="12"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
         <v>33</v>
       </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+      <c r="D104" s="12"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="12"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>33</v>
+      </c>
+      <c r="D106" s="12"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>61</v>
+      </c>
+      <c r="D107" s="12"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" s="12"/>
+    </row>
+    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="5"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>62</v>
+      </c>
+      <c r="D112" s="5">
+        <f>SUM(D64:D85)-SUM(D88:D108)</f>
+        <v>-5295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="7"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C56" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48F88B4-CBA5-48C5-A530-FBAA80738C5A}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="13">
+        <f>SUM(A3:A40)</f>
+        <v>1371.5500000000002</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA8F49A-B02D-42B5-9C2A-0DE76E5D79FF}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E664DC-F977-477B-8749-D085F1B3AB60}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11910A7B-0926-4ADD-8619-87C95FCE9578}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/01.15.2024/financial_anal_Rachel.xlsx
+++ b/01.15.2024/financial_anal_Rachel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\ftfy repo\ftfy github repo\financialaudit\01.15.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A0643E-DC1A-4FC5-9E7C-867F1771B8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206E8F7E-63A5-46F3-BB63-FDDC7B16A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EABEB508-9CDB-4E9C-9838-5B5F93A0A586}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EABEB508-9CDB-4E9C-9838-5B5F93A0A586}"/>
   </bookViews>
   <sheets>
     <sheet name="General Template" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <author>tc={28214DA6-2D34-4384-884C-85D3819B41D5}</author>
     <author>tc={7484672B-6249-4A3C-A9BD-73F379F7A901}</author>
     <author>tc={EB5E4052-77F2-44BE-8052-FD01169E83BC}</author>
+    <author>tc={B093355E-0507-44C5-9F61-D7C100CD6BB9}</author>
     <author>tc={287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}</author>
     <author>tc={F9671CB5-97BE-4F5A-B668-B2B87A615A24}</author>
   </authors>
@@ -58,7 +59,7 @@
     Update for after tax be deleting expense-taxes</t>
       </text>
     </comment>
-    <comment ref="A26" authorId="1" shapeId="0" xr:uid="{28214DA6-2D34-4384-884C-85D3819B41D5}">
+    <comment ref="A28" authorId="1" shapeId="0" xr:uid="{28214DA6-2D34-4384-884C-85D3819B41D5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -66,7 +67,7 @@
     Largest expenses and fixed monthly expenses first</t>
       </text>
     </comment>
-    <comment ref="B34" authorId="2" shapeId="0" xr:uid="{7484672B-6249-4A3C-A9BD-73F379F7A901}">
+    <comment ref="B37" authorId="2" shapeId="0" xr:uid="{7484672B-6249-4A3C-A9BD-73F379F7A901}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +76,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="C55" authorId="3" shapeId="0" xr:uid="{EB5E4052-77F2-44BE-8052-FD01169E83BC}">
+    <comment ref="C61" authorId="3" shapeId="0" xr:uid="{EB5E4052-77F2-44BE-8052-FD01169E83BC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +84,15 @@
     Not how marginal tax rate system works</t>
       </text>
     </comment>
-    <comment ref="A63" authorId="4" shapeId="0" xr:uid="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
+    <comment ref="E64" authorId="4" shapeId="0" xr:uid="{B093355E-0507-44C5-9F61-D7C100CD6BB9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In the black vs in the red</t>
+      </text>
+    </comment>
+    <comment ref="A69" authorId="5" shapeId="0" xr:uid="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +100,7 @@
     Order of liquidity</t>
       </text>
     </comment>
-    <comment ref="A87" authorId="5" shapeId="0" xr:uid="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+    <comment ref="A96" authorId="6" shapeId="0" xr:uid="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -106,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="166">
   <si>
     <t>Assets</t>
   </si>
@@ -213,21 +222,12 @@
     <t>Retirement</t>
   </si>
   <si>
-    <t>401(k)</t>
-  </si>
-  <si>
     <t>Roth IRA (After Tax)</t>
   </si>
   <si>
     <t>Traditional IRA (Pre Tax)</t>
   </si>
   <si>
-    <t>Rollover IRA (Pre Tax)</t>
-  </si>
-  <si>
-    <t>Brokerage/Stocks</t>
-  </si>
-  <si>
     <t>Brokerage/Bonds</t>
   </si>
   <si>
@@ -315,12 +315,6 @@
     <t>Other Income</t>
   </si>
   <si>
-    <t>2 Paychecks for W2 Employee</t>
-  </si>
-  <si>
-    <t>Other, Must Generate Cash Flow</t>
-  </si>
-  <si>
     <t>Other Lines of Credit, Outstanding Debt</t>
   </si>
   <si>
@@ -357,9 +351,6 @@
     <t>Financing</t>
   </si>
   <si>
-    <t>Credit Card, Avg Pmt</t>
-  </si>
-  <si>
     <t>Car Loan Pmt</t>
   </si>
   <si>
@@ -369,9 +360,6 @@
     <t>Home</t>
   </si>
   <si>
-    <t>Medical</t>
-  </si>
-  <si>
     <t>Clothing</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
     <t>Ignore %returns bc of uncertainty of capital markets</t>
   </si>
   <si>
-    <t>Est. for Self Employed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Est. Taxes </t>
   </si>
   <si>
@@ -447,12 +432,6 @@
     <t>Wages/Salaries (Pre Tax)</t>
   </si>
   <si>
-    <t>Unbiased opinion on accuracy (true definition of financial statement audit)</t>
-  </si>
-  <si>
-    <t>Overall Rating of Financial Status (Formula Driven):</t>
-  </si>
-  <si>
     <t>Gym</t>
   </si>
   <si>
@@ -553,6 +532,87 @@
   </si>
   <si>
     <t>670&lt;x&lt;740</t>
+  </si>
+  <si>
+    <t>New toyota rav4</t>
+  </si>
+  <si>
+    <t>Rental</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Pet (Food/Vet/etc.)</t>
+  </si>
+  <si>
+    <t>Gas/Fuel</t>
+  </si>
+  <si>
+    <t>Medical/Health</t>
+  </si>
+  <si>
+    <t>Credit Cards, Avg Pmt</t>
+  </si>
+  <si>
+    <t>Positive/Profit and Negative/Deficit</t>
+  </si>
+  <si>
+    <t>Positive vs Negative Total Net Worth</t>
+  </si>
+  <si>
+    <t>Additional "Passive" Streams of Income</t>
+  </si>
+  <si>
+    <t>Always ZERO, does NOT exist</t>
+  </si>
+  <si>
+    <t>Unemployment (Gov assistance)</t>
+  </si>
+  <si>
+    <t>Self Employed (Avg/Est)</t>
+  </si>
+  <si>
+    <t>W2 Employee (2 Biweekly Paychecks)</t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>Brokerage/Stocks #1</t>
+  </si>
+  <si>
+    <t>Brokerage/Stocks #2</t>
+  </si>
+  <si>
+    <t>Roth 401(k) (After Tax)</t>
+  </si>
+  <si>
+    <t>Rollover IRA (Pre or After Tax)</t>
+  </si>
+  <si>
+    <t>Traditional 401(k) (Pre Tax)</t>
+  </si>
+  <si>
+    <t>Brokerage/Cryptocurrency (Bitcoin)</t>
+  </si>
+  <si>
+    <t>*Automatic 0 for negative monthly net income</t>
+  </si>
+  <si>
+    <t>Other Assets, Must Generate Cash Flow</t>
+  </si>
+  <si>
+    <t>7k limit in 2024</t>
+  </si>
+  <si>
+    <t>Overall Rating of Financial Status (Formula Driven*):</t>
+  </si>
+  <si>
+    <t>Unbiased opinion is based on accuracy of what person discloses (true definition of financial statement audit)</t>
+  </si>
+  <si>
+    <t>Rating range: 0 to 10</t>
   </si>
 </sst>
 </file>
@@ -596,12 +656,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -613,6 +667,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -659,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -708,21 +768,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -733,6 +806,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1077,23 +1153,26 @@
   <threadedComment ref="B19" dT="2024-01-17T03:47:39.55" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{3ED7B761-563C-44B5-86A4-53F90EC91B4E}">
     <text>Update for after tax be deleting expense-taxes</text>
   </threadedComment>
-  <threadedComment ref="A26" dT="2024-01-17T03:15:50.57" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{28214DA6-2D34-4384-884C-85D3819B41D5}">
+  <threadedComment ref="A28" dT="2024-01-17T03:15:50.57" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{28214DA6-2D34-4384-884C-85D3819B41D5}">
     <text>Largest expenses and fixed monthly expenses first</text>
   </threadedComment>
-  <threadedComment ref="B34" dT="2024-01-17T03:51:27.77" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{7484672B-6249-4A3C-A9BD-73F379F7A901}">
+  <threadedComment ref="B37" dT="2024-01-17T03:51:27.77" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{7484672B-6249-4A3C-A9BD-73F379F7A901}">
     <text xml:space="preserve">Different from outstanding balance
 </text>
   </threadedComment>
-  <threadedComment ref="C55" dT="2024-01-17T03:57:11.60" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{EB5E4052-77F2-44BE-8052-FD01169E83BC}">
+  <threadedComment ref="C61" dT="2024-01-17T03:57:11.60" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{EB5E4052-77F2-44BE-8052-FD01169E83BC}">
     <text>Not how marginal tax rate system works</text>
   </threadedComment>
-  <threadedComment ref="A63" dT="2024-01-17T02:26:36.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
+  <threadedComment ref="E64" dT="2024-01-17T04:16:41.11" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{B093355E-0507-44C5-9F61-D7C100CD6BB9}">
+    <text>In the black vs in the red</text>
+  </threadedComment>
+  <threadedComment ref="A69" dT="2024-01-17T02:26:36.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{287D7B8A-D7AB-4B7C-AEEE-ED3F4145F3EE}">
     <text>Order of liquidity</text>
   </threadedComment>
-  <threadedComment ref="A87" dT="2024-01-17T02:54:07.67" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+  <threadedComment ref="A96" dT="2024-01-17T02:54:07.67" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
     <text>Should probably order by interest rate</text>
   </threadedComment>
-  <threadedComment ref="A87" dT="2024-01-17T03:12:25.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{E1A5ED7D-F6B6-4033-AB6F-7B42138EB11B}" parentId="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
+  <threadedComment ref="A96" dT="2024-01-17T03:12:25.98" personId="{8DCD5A46-60AA-40D1-89D9-9486A7387E05}" id="{E1A5ED7D-F6B6-4033-AB6F-7B42138EB11B}" parentId="{F9671CB5-97BE-4F5A-B668-B2B87A615A24}">
     <text>Outstanding balances only</text>
   </threadedComment>
 </ThreadedComments>
@@ -1101,29 +1180,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DAD69-0CBD-442A-B9B3-7BA41531C407}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>163</v>
+      </c>
+      <c r="D1" s="19">
+        <f>IF(D64&lt;0,0,IF(AND(D64&gt;20000,D121&gt;1000000),10,"DEPENDS"))</f>
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>165</v>
+      </c>
+      <c r="E2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1149,35 +1238,35 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>145</v>
+        <v>130</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
-        <v>146</v>
+      <c r="B8" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1222,10 +1311,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1235,7 +1324,7 @@
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1249,682 +1338,782 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <f>SUM(D19:D26)</f>
+        <v>6500</v>
+      </c>
       <c r="B19" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="9">
+        <v>152</v>
+      </c>
+      <c r="D20" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="9">
+        <v>151</v>
+      </c>
+      <c r="D21" s="7">
         <v>6500</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="9"/>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="9"/>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="9">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="7">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="10">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <f>SUM(D29:D61)</f>
+        <v>6648.55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="8">
         <v>2100</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>71</v>
+      </c>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="D31" s="8">
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="10"/>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C33" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="10"/>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="10"/>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="8">
+        <v>150</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="10"/>
+        <v>113</v>
+      </c>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="10">
-        <v>530</v>
-      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="10"/>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="8">
+        <v>327</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="D40" s="8">
+        <v>530</v>
+      </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="10"/>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="D42" s="8">
+        <v>150</v>
+      </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="10"/>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="10"/>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="10"/>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="8">
+        <v>330</v>
+      </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="10"/>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="10">
+        <v>141</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="10"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="10"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="10"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="10"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="10">
+        <v>99</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="8">
         <f>'Misc Expenses'!A1</f>
         <v>1371.5500000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="10"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="10">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="8">
         <f>SUM(D20:D21)*0.22</f>
         <v>1430</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="7" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="5">
+        <f>SUM(D19:D26)-SUM(D29:D61)</f>
+        <v>-148.55000000000018</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="5">
+        <f>D64*12</f>
+        <v>-1782.6000000000022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E68" t="s">
         <v>32</v>
       </c>
-      <c r="F62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="F68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>28</v>
       </c>
-      <c r="D64" s="11"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C65" t="s">
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D71" s="9">
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D72" s="9">
         <v>4000</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C67" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="11"/>
-      <c r="F68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D69" s="11"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
+      <c r="D73" s="9"/>
+      <c r="E73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="F74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="11"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C71" t="s">
-        <v>39</v>
-      </c>
-      <c r="D71" s="11">
+      <c r="D76" s="9"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="9">
         <v>0</v>
       </c>
-      <c r="E71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="11"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>41</v>
-      </c>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>42</v>
-      </c>
-      <c r="D74" s="11"/>
-      <c r="F74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" s="11"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="11"/>
-      <c r="F76" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="11"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="9">
+        <v>2500</v>
+      </c>
+      <c r="E78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
         <v>37</v>
       </c>
-      <c r="D78" s="11"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-      <c r="D79" s="11"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>100</v>
-      </c>
-      <c r="D80" s="11"/>
+      <c r="D79" s="9"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="9">
+        <v>1888</v>
+      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
-        <v>99</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" t="s">
-        <v>102</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" t="s">
-        <v>102</v>
+        <v>39</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="F82" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" s="11"/>
-      <c r="E83" t="s">
-        <v>104</v>
-      </c>
+      <c r="B83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="11"/>
+      <c r="C84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="F84" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D85" s="11"/>
+      <c r="C85" t="s">
+        <v>156</v>
+      </c>
+      <c r="D85" s="9"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D86" s="7"/>
+      <c r="C86" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="7"/>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="9"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" s="12"/>
-      <c r="F88" t="s">
-        <v>51</v>
-      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" s="9"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C89" t="s">
-        <v>52</v>
-      </c>
-      <c r="D89" s="12">
-        <v>1500</v>
-      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="9"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
-        <v>53</v>
-      </c>
-      <c r="D90" s="12">
+        <v>91</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="9">
+        <v>25000</v>
+      </c>
+      <c r="E92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="9"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D94" s="9"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="F97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="10">
         <f>2648-53</f>
         <v>2595</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C91" t="s">
-        <v>135</v>
-      </c>
-      <c r="D91" s="12">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>125</v>
+      </c>
+      <c r="D100" s="10">
         <f>4845-45</f>
         <v>4800</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>136</v>
-      </c>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>47</v>
-      </c>
-      <c r="D93" s="12"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C94" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" s="10"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>44</v>
+      </c>
+      <c r="D102" s="10"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>51</v>
+      </c>
+      <c r="D103" s="10">
+        <v>15000</v>
+      </c>
+      <c r="E103" t="s">
+        <v>139</v>
+      </c>
+      <c r="F103" s="17">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>52</v>
+      </c>
+      <c r="D104" s="10"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="10"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="10"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D107" s="10"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>43</v>
+      </c>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>67</v>
+      </c>
+      <c r="D109" s="10">
+        <v>1000</v>
+      </c>
+      <c r="E109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>54</v>
       </c>
-      <c r="D94" s="12"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C95" t="s">
+      <c r="D110" s="10"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
         <v>55</v>
       </c>
-      <c r="D95" s="12"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="12"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C97" t="s">
+      <c r="D111" s="10"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
         <v>56</v>
       </c>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B98" t="s">
-        <v>71</v>
-      </c>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C99" t="s">
-        <v>46</v>
-      </c>
-      <c r="D99" s="12"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C100" t="s">
-        <v>72</v>
-      </c>
-      <c r="D100" s="12">
-        <v>1000</v>
-      </c>
-      <c r="E100" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B101" t="s">
+      <c r="D112" s="10"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" s="10"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>57</v>
       </c>
-      <c r="D101" s="12"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C102" t="s">
+      <c r="D114" s="10"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>33</v>
+      </c>
+      <c r="D115" s="10"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
         <v>58</v>
       </c>
-      <c r="D102" s="12"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C103" t="s">
+      <c r="D116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>33</v>
+      </c>
+      <c r="D117" s="10"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
         <v>59</v>
       </c>
-      <c r="D103" s="12"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C104" t="s">
-        <v>33</v>
-      </c>
-      <c r="D104" s="12"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>60</v>
-      </c>
-      <c r="D105" s="12"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C106" t="s">
-        <v>33</v>
-      </c>
-      <c r="D106" s="12"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>61</v>
-      </c>
-      <c r="D107" s="12"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C108" t="s">
-        <v>33</v>
-      </c>
-      <c r="D108" s="12"/>
-    </row>
-    <row r="109" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D109" s="7"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>2</v>
-      </c>
-      <c r="D110" s="7"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>63</v>
-      </c>
-      <c r="D111" s="5"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C112" t="s">
+      <c r="D121" s="5">
+        <f>SUM(D70:D94)-SUM(D97:D117)</f>
+        <v>9093</v>
+      </c>
+      <c r="E121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D123" s="6"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D112" s="5">
-        <f>SUM(D64:D85)-SUM(D88:D108)</f>
-        <v>-5295</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D113" s="7"/>
-    </row>
-    <row r="114" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D114" s="7"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1945,12 +2134,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13">
+      <c r="A1" s="11">
         <f>SUM(A3:A40)</f>
         <v>1371.5500000000002</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2025,32 +2214,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2070,17 +2259,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2100,17 +2289,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/01.15.2024/financial_anal_Rachel.xlsx
+++ b/01.15.2024/financial_anal_Rachel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\ftfy repo\ftfy github repo\financialaudit\01.15.2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206E8F7E-63A5-46F3-BB63-FDDC7B16A1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2068D010-93BF-41E6-A4EF-A3A638C3FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EABEB508-9CDB-4E9C-9838-5B5F93A0A586}"/>
   </bookViews>
@@ -115,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="167">
   <si>
     <t>Assets</t>
   </si>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>Rating range: 0 to 10</t>
+  </si>
+  <si>
+    <t>Tax codes favor avoidance for those who own assets, not your avg Joe</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -667,12 +670,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1182,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56DAD69-0CBD-442A-B9B3-7BA41531C407}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,6 +1649,9 @@
       <c r="D61" s="8">
         <f>SUM(D20:D21)*0.22</f>
         <v>1430</v>
+      </c>
+      <c r="E61" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
